--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A1127-89CF-4F42-92F6-E884CF2FD801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5C0C7-61E2-A643-9DF3-8B954EC1C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="94">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -209,9 +209,6 @@
     <t>automation@yopmail.com</t>
   </si>
   <si>
-    <t>06/13/2023</t>
-  </si>
-  <si>
     <t>MUZZ012</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>Delta</t>
   </si>
   <si>
-    <t>AnonymousUserTestCases</t>
-  </si>
-  <si>
     <t>Budget_Reservation_Domestic_Anonymous_PayLater_NZ</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>LAS</t>
   </si>
   <si>
-    <t>TUZZ004</t>
-  </si>
-  <si>
     <t>Budget_Reservation_MtypeCoupon_PayLater_NZ</t>
   </si>
   <si>
@@ -269,29 +260,65 @@
     <t>X1962090</t>
   </si>
   <si>
-    <t>06/20/2023</t>
+    <t>Budget_Reservation_Domestic_PayNow_NZ</t>
+  </si>
+  <si>
+    <t>AKL</t>
+  </si>
+  <si>
+    <t>PayNow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701 West </t>
+  </si>
+  <si>
+    <t>TUZZ008</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Inbound_PayNow_NZ</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Outbound_PayNow_NZ</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_KeyDropLocation_PayLater_NZ</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_OneWay_PayLater_NZ</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_AnonymousUser_FlightInfoMandatory_NZ</t>
+  </si>
+  <si>
+    <t>UUZZ011</t>
+  </si>
+  <si>
+    <t>Woodhill</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>WLG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,22 +365,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BC8"/>
+  <dimension ref="A1:BC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,10 +844,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -825,7 +859,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>56</v>
@@ -969,15 +1003,16 @@
         <v>56</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BC2" s="2">
         <v>2323</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -989,10 +1024,10 @@
         <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -1133,15 +1168,16 @@
         <v>56</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BC3" s="2">
         <v>2323</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -1153,10 +1189,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -1297,60 +1333,60 @@
         <v>56</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BC4" s="2">
         <v>2323</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="R5" t="s">
@@ -1462,62 +1498,60 @@
         <v>56</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BC5" s="2">
         <v>2323</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="6">
+        <v>45083</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="6">
+        <v>45090</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="R6" t="s">
@@ -1629,57 +1663,60 @@
         <v>56</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BC6" s="2">
         <v>2323</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="R7" t="s">
@@ -1791,60 +1828,60 @@
         <v>56</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BC7" s="2">
         <v>2323</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="R8" t="s">
@@ -1889,76 +1926,1066 @@
       <c r="AE8" t="s">
         <v>56</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AF8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AG8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC8" s="2">
+      <c r="S9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="4">
+        <v>9840000000</v>
+      </c>
+      <c r="W9" s="8">
+        <v>342000000000000</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1129</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>123</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>4293</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J10" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="4">
+        <v>9840000000</v>
+      </c>
+      <c r="W10" s="8">
+        <v>342000000000000</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1129</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>123</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J11" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="4">
+        <v>9840000000</v>
+      </c>
+      <c r="W11" s="8">
+        <v>342000000000000</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1129</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>123</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>4293</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J12" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="3">
+        <v>9838234567</v>
+      </c>
+      <c r="W12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" s="4">
+        <v>9840000000</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="4">
+        <v>9840000000</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC14" s="2">
         <v>2323</v>
       </c>
     </row>
@@ -1988,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -2140,7 +3167,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5C0C7-61E2-A643-9DF3-8B954EC1C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2D98BC-6450-D246-8DCD-272CB1A94190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="98">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -221,6 +221,9 @@
     <t>Delta</t>
   </si>
   <si>
+    <t>AnonymousUserTestCases</t>
+  </si>
+  <si>
     <t>Budget_Reservation_Domestic_Anonymous_PayLater_NZ</t>
   </si>
   <si>
@@ -275,6 +278,9 @@
     <t>TUZZ008</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Budget_Reservation_Inbound_PayNow_NZ</t>
   </si>
   <si>
@@ -303,6 +309,12 @@
   </si>
   <si>
     <t>WLG</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>Budget_RES_Inbound_MultiCurrency_IATA_Cancellation_PayNow_NZ</t>
   </si>
 </sst>
 </file>
@@ -365,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +400,9 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BC14"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -847,7 +862,7 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -859,7 +874,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>56</v>
@@ -1012,7 +1027,7 @@
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -1024,7 +1039,7 @@
         <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>63</v>
@@ -1177,7 +1192,7 @@
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -1189,7 +1204,7 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>64</v>
@@ -1342,7 +1357,7 @@
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -1354,7 +1369,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>56</v>
@@ -1375,7 +1390,7 @@
         <v>56</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>56</v>
@@ -1507,7 +1522,7 @@
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>55</v>
@@ -1519,7 +1534,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>56</v>
@@ -1672,7 +1687,7 @@
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>55</v>
@@ -1684,7 +1699,7 @@
         <v>56</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>56</v>
@@ -1705,7 +1720,7 @@
         <v>56</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>56</v>
@@ -1835,9 +1850,11 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>55</v>
@@ -1849,7 +1866,7 @@
         <v>56</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>56</v>
@@ -1927,7 +1944,7 @@
         <v>56</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s">
         <v>56</v>
@@ -2000,9 +2017,11 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>55</v>
@@ -2014,7 +2033,7 @@
         <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>56</v>
@@ -2050,7 +2069,7 @@
         <v>56</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>59</v>
@@ -2071,7 +2090,7 @@
         <v>1129</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>56</v>
@@ -2083,7 +2102,7 @@
         <v>123</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>56</v>
@@ -2165,9 +2184,11 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
@@ -2179,7 +2200,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>63</v>
@@ -2215,7 +2236,7 @@
         <v>56</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>59</v>
@@ -2236,10 +2257,10 @@
         <v>1129</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>56</v>
@@ -2330,9 +2351,11 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
@@ -2344,7 +2367,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>56</v>
@@ -2380,7 +2403,7 @@
         <v>56</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>59</v>
@@ -2401,7 +2424,7 @@
         <v>1129</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>56</v>
@@ -2413,7 +2436,7 @@
         <v>123</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>56</v>
@@ -2495,9 +2518,11 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>55</v>
@@ -2509,7 +2534,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>56</v>
@@ -2587,7 +2612,7 @@
         <v>56</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s">
         <v>56</v>
@@ -2660,9 +2685,11 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
@@ -2674,7 +2701,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>56</v>
@@ -2692,7 +2719,7 @@
         <v>56</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>56</v>
@@ -2825,9 +2852,11 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
@@ -2839,7 +2868,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>56</v>
@@ -2986,6 +3015,173 @@
         <v>65</v>
       </c>
       <c r="BC14" s="2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="3">
+        <v>9838234567</v>
+      </c>
+      <c r="W15" s="10">
+        <v>342000000000000</v>
+      </c>
+      <c r="X15">
+        <v>1129</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15">
+        <v>123</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC15">
         <v>2323</v>
       </c>
     </row>
@@ -3015,10 +3211,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -3167,7 +3363,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2D98BC-6450-D246-8DCD-272CB1A94190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F735D1-41B7-354B-B4FB-E385716FB9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="109">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -315,6 +315,39 @@
   </si>
   <si>
     <t>Budget_RES_Inbound_MultiCurrency_IATA_Cancellation_PayNow_NZ</t>
+  </si>
+  <si>
+    <t>VerifyKeyDropMessage</t>
+  </si>
+  <si>
+    <t>SelectMyCar</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>ReserveButton</t>
+  </si>
+  <si>
+    <t>701 West</t>
+  </si>
+  <si>
+    <t>Budget_RES_Outbound_USAA_Validate_CorpBooking_NZ</t>
+  </si>
+  <si>
+    <t>Budget_RES_OneWay_USAA_PayLater_NZ</t>
+  </si>
+  <si>
+    <t>Budget_RES_BCD_CorpCust_insuranceCover_Validate_Paylater_NZ</t>
+  </si>
+  <si>
+    <t>Budget_RES_Misc_Verify_Underage_onStep1_FleetFliter_VehicleType_Seats_Mileage_Price_onStep2_NZ</t>
+  </si>
+  <si>
+    <t>Budget_RES_EMEA90Days_ErrorMessage_Step1_Res widget_NZ</t>
+  </si>
+  <si>
+    <t>Budget_RES_Misc_Step1_2_Step4_ErrorMsg_Validation_NZ</t>
   </si>
 </sst>
 </file>
@@ -680,19 +713,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A15"/>
+      <selection activeCell="A22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="81.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -858,9 +891,23 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
@@ -1023,9 +1070,23 @@
       <c r="BC2" s="2">
         <v>2323</v>
       </c>
+      <c r="BD2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -1188,9 +1249,23 @@
       <c r="BC3" s="2">
         <v>2323</v>
       </c>
+      <c r="BD3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -1353,9 +1428,23 @@
       <c r="BC4" s="2">
         <v>2323</v>
       </c>
+      <c r="BD4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG4" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -1518,9 +1607,23 @@
       <c r="BC5" s="2">
         <v>2323</v>
       </c>
+      <c r="BD5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" t="s">
         <v>76</v>
       </c>
@@ -1683,9 +1786,23 @@
       <c r="BC6" s="2">
         <v>2323</v>
       </c>
+      <c r="BD6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG6" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -1848,8 +1965,20 @@
       <c r="BC7" s="2">
         <v>2323</v>
       </c>
+      <c r="BD7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG7" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
@@ -2015,8 +2144,20 @@
       <c r="BC8" s="2">
         <v>2323</v>
       </c>
+      <c r="BD8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -2182,8 +2323,20 @@
       <c r="BC9" s="2">
         <v>2323</v>
       </c>
+      <c r="BD9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG9" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2349,8 +2502,20 @@
       <c r="BC10" s="2">
         <v>2323</v>
       </c>
+      <c r="BD10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG10" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -2516,8 +2681,20 @@
       <c r="BC11" s="2">
         <v>2323</v>
       </c>
+      <c r="BD11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG11" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -2683,8 +2860,20 @@
       <c r="BC12" s="2">
         <v>2323</v>
       </c>
+      <c r="BD12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG12" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -2850,8 +3039,20 @@
       <c r="BC13" s="2">
         <v>2323</v>
       </c>
+      <c r="BD13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG13" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3218,20 @@
       <c r="BC14" s="2">
         <v>2323</v>
       </c>
+      <c r="BD14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG14" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -3183,6 +3396,1092 @@
       </c>
       <c r="BC15">
         <v>2323</v>
+      </c>
+      <c r="BD15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG15" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16" s="3">
+        <v>9838234567</v>
+      </c>
+      <c r="W16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>2323</v>
+      </c>
+      <c r="BD16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG16" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" s="4">
+        <v>9840000000</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>2323</v>
+      </c>
+      <c r="BD17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" s="3">
+        <v>9838234567</v>
+      </c>
+      <c r="W18" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>2323</v>
+      </c>
+      <c r="BD18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG18" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" s="3">
+        <v>9838234567</v>
+      </c>
+      <c r="W19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>2323</v>
+      </c>
+      <c r="BD19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>58</v>
+      </c>
+      <c r="S20" t="s">
+        <v>59</v>
+      </c>
+      <c r="T20" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="3">
+        <v>9838234567</v>
+      </c>
+      <c r="W20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>2323</v>
+      </c>
+      <c r="BD20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>82</v>
+      </c>
+      <c r="S21" t="s">
+        <v>59</v>
+      </c>
+      <c r="T21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" t="s">
+        <v>61</v>
+      </c>
+      <c r="V21" s="3">
+        <v>9838234567</v>
+      </c>
+      <c r="W21" s="10">
+        <v>342000000000000</v>
+      </c>
+      <c r="X21">
+        <v>1129</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB21">
+        <v>123</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>4923</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>2323</v>
+      </c>
+      <c r="BD21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG21" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F735D1-41B7-354B-B4FB-E385716FB9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AF5D3E-5B17-6B40-B423-DC37495FBF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget branch/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AF5D3E-5B17-6B40-B423-DC37495FBF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B50DC-C456-2A44-84DF-839F971B63BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget NZ Anonymous" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="113">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>Budget_RES_Misc_Step1_2_Step4_ErrorMsg_Validation_NZ</t>
+  </si>
+  <si>
+    <t>ViewModifyCancel</t>
+  </si>
+  <si>
+    <t>UpliftInfo</t>
+  </si>
+  <si>
+    <t>ErrorMessage90</t>
+  </si>
+  <si>
+    <t>PickUplocation1</t>
   </si>
 </sst>
 </file>
@@ -358,12 +370,19 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,19 +429,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -431,11 +450,14 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BG21"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -725,7 +747,7 @@
     <col min="2" max="2" width="81.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,8 +925,20 @@
       <c r="BG1" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="BH1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
@@ -1082,8 +1116,20 @@
       <c r="BG2" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
@@ -1261,8 +1307,20 @@
       <c r="BG3" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -1440,8 +1498,20 @@
       <c r="BG4" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK4" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -1619,8 +1689,20 @@
       <c r="BG5" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK5" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -1798,8 +1880,20 @@
       <c r="BG6" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK6" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -1977,8 +2071,20 @@
       <c r="BG7" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK7" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
@@ -2156,8 +2262,20 @@
       <c r="BG8" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -2335,8 +2453,20 @@
       <c r="BG9" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK9" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2514,8 +2644,20 @@
       <c r="BG10" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK10" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -2693,8 +2835,20 @@
       <c r="BG11" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK11" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -2872,8 +3026,20 @@
       <c r="BG12" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK12" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -3051,8 +3217,20 @@
       <c r="BG13" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK13" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -3230,8 +3408,20 @@
       <c r="BG14" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK14" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -3409,8 +3599,20 @@
       <c r="BG15" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK15" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -3588,8 +3790,20 @@
       <c r="BG16" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK16" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -3767,8 +3981,20 @@
       <c r="BG17" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK17" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
@@ -3946,8 +4172,20 @@
       <c r="BG18" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK18" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -4125,8 +4363,20 @@
       <c r="BG19" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK19" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -4304,8 +4554,20 @@
       <c r="BG20" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BH20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK20" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -4482,6 +4744,18 @@
       </c>
       <c r="BG21" s="5" t="s">
         <v>85</v>
+      </c>
+      <c r="BH21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK21" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget branch/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B50DC-C456-2A44-84DF-839F971B63BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521BC95-CA63-B543-92EC-95D5AE5AB643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget NZ Anonymous" sheetId="4" r:id="rId1"/>
@@ -344,9 +344,6 @@
     <t>Budget_RES_Misc_Verify_Underage_onStep1_FleetFliter_VehicleType_Seats_Mileage_Price_onStep2_NZ</t>
   </si>
   <si>
-    <t>Budget_RES_EMEA90Days_ErrorMessage_Step1_Res widget_NZ</t>
-  </si>
-  <si>
     <t>Budget_RES_Misc_Step1_2_Step4_ErrorMsg_Validation_NZ</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>PickUplocation1</t>
+  </si>
+  <si>
+    <t>Budget_RES_EMEA90Days_ErrorMessage_Step1_Res_widget_NZ</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -926,16 +926,16 @@
         <v>101</v>
       </c>
       <c r="BH1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BK1" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
@@ -4381,7 +4381,7 @@
         <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -4572,7 +4572,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget branch/ecom-us-web/budget-web-tests/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521BC95-CA63-B543-92EC-95D5AE5AB643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FCBF4-D91C-A841-8592-484817E23DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget NZ Anonymous" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="120">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -360,6 +360,27 @@
   </si>
   <si>
     <t>Budget_RES_EMEA90Days_ErrorMessage_Step1_Res_widget_NZ</t>
+  </si>
+  <si>
+    <t>CreditCardType</t>
+  </si>
+  <si>
+    <t>ErrorMessageVerify</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>FrequentTravellerProgram</t>
+  </si>
+  <si>
+    <t>UpliftMobile</t>
+  </si>
+  <si>
+    <t>UpliftBirthDate</t>
+  </si>
+  <si>
+    <t>Paynow</t>
   </si>
 </sst>
 </file>
@@ -370,12 +391,19 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,6 +434,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,19 +464,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -450,14 +485,25 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,19 +781,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,20 +972,41 @@
       <c r="BG1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>110</v>
       </c>
       <c r="BK1" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="BL1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR1" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
@@ -1128,8 +1196,29 @@
       <c r="BK2" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
@@ -1319,8 +1408,29 @@
       <c r="BK3" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -1510,8 +1620,29 @@
       <c r="BK4" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -1701,8 +1832,29 @@
       <c r="BK5" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -1892,8 +2044,29 @@
       <c r="BK6" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -2083,8 +2256,29 @@
       <c r="BK7" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
@@ -2274,8 +2468,29 @@
       <c r="BK8" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -2300,13 +2515,13 @@
       <c r="H9" s="6">
         <v>45118</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="6">
         <v>45127</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -2342,7 +2557,7 @@
       <c r="V9" s="4">
         <v>9840000000</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="14">
         <v>342000000000000</v>
       </c>
       <c r="X9" s="2">
@@ -2465,8 +2680,29 @@
       <c r="BK9" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2533,7 +2769,7 @@
       <c r="V10" s="4">
         <v>9840000000</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="14">
         <v>342000000000000</v>
       </c>
       <c r="X10" s="2">
@@ -2656,8 +2892,29 @@
       <c r="BK10" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -2724,7 +2981,7 @@
       <c r="V11" s="4">
         <v>9840000000</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="14">
         <v>342000000000000</v>
       </c>
       <c r="X11" s="2">
@@ -2847,8 +3104,29 @@
       <c r="BK11" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -3038,8 +3316,29 @@
       <c r="BK12" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -3229,8 +3528,29 @@
       <c r="BK13" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -3420,8 +3740,29 @@
       <c r="BK14" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -3488,7 +3829,7 @@
       <c r="V15" s="3">
         <v>9838234567</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="14">
         <v>342000000000000</v>
       </c>
       <c r="X15">
@@ -3611,8 +3952,29 @@
       <c r="BK15" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -3802,8 +4164,29 @@
       <c r="BK16" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -3993,8 +4376,29 @@
       <c r="BK17" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
@@ -4184,8 +4588,29 @@
       <c r="BK18" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -4375,8 +4800,29 @@
       <c r="BK19" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -4566,8 +5012,29 @@
       <c r="BK20" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="BL20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -4634,7 +5101,7 @@
       <c r="V21" s="3">
         <v>9838234567</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="14">
         <v>342000000000000</v>
       </c>
       <c r="X21">
@@ -4755,6 +5222,27 @@
         <v>56</v>
       </c>
       <c r="BK21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR21" t="s">
         <v>56</v>
       </c>
     </row>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08FCBF4-D91C-A841-8592-484817E23DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6628CD02-994C-D146-B0FE-1DF1F027DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2558,7 +2558,7 @@
         <v>9840000000</v>
       </c>
       <c r="W9" s="14">
-        <v>342000000000000</v>
+        <v>349208735768268</v>
       </c>
       <c r="X9" s="2">
         <v>1129</v>
@@ -2770,7 +2770,7 @@
         <v>9840000000</v>
       </c>
       <c r="W10" s="14">
-        <v>342000000000000</v>
+        <v>349208735768268</v>
       </c>
       <c r="X10" s="2">
         <v>1129</v>
@@ -2982,7 +2982,7 @@
         <v>9840000000</v>
       </c>
       <c r="W11" s="14">
-        <v>342000000000000</v>
+        <v>349208735768268</v>
       </c>
       <c r="X11" s="2">
         <v>1129</v>
@@ -3830,7 +3830,7 @@
         <v>9838234567</v>
       </c>
       <c r="W15" s="14">
-        <v>342000000000000</v>
+        <v>349208735768268</v>
       </c>
       <c r="X15">
         <v>1129</v>
@@ -5102,7 +5102,7 @@
         <v>9838234567</v>
       </c>
       <c r="W21" s="14">
-        <v>342000000000000</v>
+        <v>349208735768268</v>
       </c>
       <c r="X21">
         <v>1129</v>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6628CD02-994C-D146-B0FE-1DF1F027DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1635C475-7C35-C748-AE41-D1D08BE1D538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="120">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -275,9 +275,6 @@
     <t xml:space="preserve">701 West </t>
   </si>
   <si>
-    <t>TUZZ008</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>Budget_Reservation_AnonymousUser_FlightInfoMandatory_NZ</t>
   </si>
   <si>
-    <t>UUZZ011</t>
-  </si>
-  <si>
     <t>Woodhill</t>
   </si>
   <si>
@@ -359,9 +353,6 @@
     <t>PickUplocation1</t>
   </si>
   <si>
-    <t>Budget_RES_EMEA90Days_ErrorMessage_Step1_Res_widget_NZ</t>
-  </si>
-  <si>
     <t>CreditCardType</t>
   </si>
   <si>
@@ -381,6 +372,15 @@
   </si>
   <si>
     <t>Paynow</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>Budget_RES_EMEA90Days_ErrorMessage_Step1_Res widget_NZ</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,6 +504,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,7 +787,7 @@
   <dimension ref="A1:BR21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -961,49 +964,49 @@
         <v>54</v>
       </c>
       <c r="BD1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="BF1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="BH1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BK1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BL1" t="s">
         <v>110</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BM1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BP1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BQ1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BR1" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="BP1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="BQ1" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR1" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
@@ -1176,13 +1179,13 @@
         <v>56</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH2" s="5" t="s">
         <v>56</v>
@@ -1388,13 +1391,13 @@
         <v>56</v>
       </c>
       <c r="BE3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH3" s="5" t="s">
         <v>56</v>
@@ -1600,13 +1603,13 @@
         <v>56</v>
       </c>
       <c r="BE4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH4" s="5" t="s">
         <v>56</v>
@@ -1665,13 +1668,13 @@
         <v>56</v>
       </c>
       <c r="H5" s="6">
-        <v>45118</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>45144</v>
+      </c>
+      <c r="I5" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="6">
-        <v>45127</v>
+        <v>45151</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>56</v>
@@ -1679,8 +1682,8 @@
       <c r="L5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>84</v>
+      <c r="M5" t="s">
+        <v>62</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>56</v>
@@ -1812,13 +1815,13 @@
         <v>56</v>
       </c>
       <c r="BE5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH5" s="5" t="s">
         <v>56</v>
@@ -2024,13 +2027,13 @@
         <v>56</v>
       </c>
       <c r="BE6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH6" s="5" t="s">
         <v>56</v>
@@ -2103,8 +2106,8 @@
       <c r="L7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M7" t="s">
-        <v>91</v>
+      <c r="M7" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>56</v>
@@ -2236,13 +2239,13 @@
         <v>56</v>
       </c>
       <c r="BE7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH7" s="5" t="s">
         <v>56</v>
@@ -2448,13 +2451,13 @@
         <v>56</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH8" s="5" t="s">
         <v>56</v>
@@ -2576,7 +2579,7 @@
         <v>123</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>56</v>
@@ -2660,13 +2663,13 @@
         <v>56</v>
       </c>
       <c r="BE9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH9" s="5" t="s">
         <v>56</v>
@@ -2707,7 +2710,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
@@ -2719,7 +2722,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>63</v>
@@ -2779,7 +2782,7 @@
         <v>83</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>56</v>
@@ -2872,13 +2875,13 @@
         <v>56</v>
       </c>
       <c r="BE10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH10" s="5" t="s">
         <v>56</v>
@@ -2919,7 +2922,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
@@ -3000,7 +3003,7 @@
         <v>123</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>56</v>
@@ -3084,13 +3087,13 @@
         <v>56</v>
       </c>
       <c r="BE11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH11" s="5" t="s">
         <v>56</v>
@@ -3131,7 +3134,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>55</v>
@@ -3299,10 +3302,10 @@
         <v>56</v>
       </c>
       <c r="BF12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH12" s="5" t="s">
         <v>56</v>
@@ -3343,7 +3346,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
@@ -3355,7 +3358,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>56</v>
@@ -3508,13 +3511,13 @@
         <v>56</v>
       </c>
       <c r="BE13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH13" s="5" t="s">
         <v>56</v>
@@ -3555,7 +3558,7 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
@@ -3720,13 +3723,13 @@
         <v>56</v>
       </c>
       <c r="BE14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH14" s="5" t="s">
         <v>56</v>
@@ -3767,7 +3770,7 @@
         <v>66</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -3779,22 +3782,22 @@
         <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" t="s">
-        <v>56</v>
+      <c r="H15" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J15" s="6">
+        <v>45127</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.58333333333333337</v>
       </c>
       <c r="L15" t="s">
         <v>56</v>
@@ -3839,7 +3842,7 @@
         <v>83</v>
       </c>
       <c r="Z15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>56</v>
@@ -3875,7 +3878,7 @@
         <v>56</v>
       </c>
       <c r="AL15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AM15" t="s">
         <v>56</v>
@@ -3932,13 +3935,13 @@
         <v>56</v>
       </c>
       <c r="BE15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH15" s="5" t="s">
         <v>56</v>
@@ -3979,7 +3982,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>55</v>
@@ -4144,13 +4147,13 @@
         <v>56</v>
       </c>
       <c r="BE16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH16" s="5" t="s">
         <v>56</v>
@@ -4191,7 +4194,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>55</v>
@@ -4203,7 +4206,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>56</v>
@@ -4356,13 +4359,13 @@
         <v>56</v>
       </c>
       <c r="BE17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH17" s="5" t="s">
         <v>56</v>
@@ -4403,7 +4406,7 @@
         <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -4568,13 +4571,13 @@
         <v>56</v>
       </c>
       <c r="BE18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH18" s="5" t="s">
         <v>56</v>
@@ -4615,7 +4618,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -4780,13 +4783,13 @@
         <v>56</v>
       </c>
       <c r="BE19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH19" s="5" t="s">
         <v>56</v>
@@ -4827,10 +4830,10 @@
         <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
@@ -4839,7 +4842,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
@@ -4851,7 +4854,7 @@
         <v>56</v>
       </c>
       <c r="J20" s="6">
-        <v>45127</v>
+        <v>45210</v>
       </c>
       <c r="K20" t="s">
         <v>56</v>
@@ -4874,20 +4877,20 @@
       <c r="Q20" t="s">
         <v>56</v>
       </c>
-      <c r="R20" t="s">
-        <v>58</v>
-      </c>
-      <c r="S20" t="s">
-        <v>59</v>
-      </c>
-      <c r="T20" t="s">
-        <v>60</v>
-      </c>
-      <c r="U20" t="s">
-        <v>61</v>
-      </c>
-      <c r="V20" s="3">
-        <v>9838234567</v>
+      <c r="R20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="W20" t="s">
         <v>56</v>
@@ -4982,23 +4985,23 @@
       <c r="BA20" t="s">
         <v>56</v>
       </c>
-      <c r="BB20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC20" s="2">
-        <v>2323</v>
+      <c r="BB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>56</v>
       </c>
       <c r="BD20" s="5" t="s">
         <v>56</v>
       </c>
       <c r="BE20" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="BF20" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="BG20" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="BH20" s="5" t="s">
         <v>56</v>
@@ -5007,21 +5010,21 @@
         <v>56</v>
       </c>
       <c r="BJ20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK20" s="5" t="s">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="BK20" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="BL20" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BM20" s="12" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="BN20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BO20" s="12" t="s">
+      <c r="BO20" t="s">
         <v>56</v>
       </c>
       <c r="BP20" t="s">
@@ -5039,7 +5042,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -5051,7 +5054,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>
@@ -5108,7 +5111,7 @@
         <v>1129</v>
       </c>
       <c r="Y21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z21" t="s">
         <v>56</v>
@@ -5120,7 +5123,7 @@
         <v>123</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>56</v>
@@ -5147,7 +5150,7 @@
         <v>56</v>
       </c>
       <c r="AL21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AM21" t="s">
         <v>56</v>
@@ -5204,13 +5207,13 @@
         <v>56</v>
       </c>
       <c r="BE21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH21" s="5" t="s">
         <v>56</v>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1635C475-7C35-C748-AE41-D1D08BE1D538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F32910-AE2F-A341-8AD2-3482F4B7F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
   <dimension ref="A1:BR21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A6" sqref="A6:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5149,8 +5149,8 @@
       <c r="AK21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AL21" t="s">
-        <v>84</v>
+      <c r="AL21" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="AM21" t="s">
         <v>56</v>

--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25C42A-A1E1-EE42-8A07-1FEE7BBEFBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget NZ Anonymous" sheetId="4" r:id="rId1"/>
@@ -386,18 +392,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="183" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,370 +410,40 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -780,251 +451,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,23 +468,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1064,65 +493,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1380,28 +765,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="81.1666666666667" customWidth="1"/>
-    <col min="23" max="23" width="16.3333333333333" customWidth="1"/>
-    <col min="62" max="62" width="17.4444444444444" customWidth="1"/>
-    <col min="65" max="65" width="18.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81.1640625" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="62" max="62" width="17.5" customWidth="1"/>
+    <col min="65" max="65" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:70">
+    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -1825,7 +1210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -2037,7 +1422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -2249,7 +1634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2461,7 +1846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -2673,7 +2058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -2885,7 +2270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -3097,7 +2482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -3309,7 +2694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -3335,13 +2720,13 @@
         <v>45118</v>
       </c>
       <c r="I10" s="6">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="J10" s="4">
         <v>45127</v>
       </c>
       <c r="K10" s="6">
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>73</v>
@@ -3521,7 +2906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -3547,13 +2932,13 @@
         <v>45118</v>
       </c>
       <c r="I11" s="6">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="J11" s="4">
         <v>45127</v>
       </c>
       <c r="K11" s="6">
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>73</v>
@@ -3733,7 +3118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -3945,7 +3330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -4157,7 +3542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -4369,7 +3754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>70</v>
       </c>
@@ -4395,13 +3780,13 @@
         <v>45118</v>
       </c>
       <c r="I15" s="6">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="J15" s="4">
         <v>45127</v>
       </c>
       <c r="K15" s="6">
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="L15" t="s">
         <v>73</v>
@@ -4581,7 +3966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
@@ -4793,7 +4178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -5005,7 +4390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -5217,7 +4602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -5429,7 +4814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -5641,7 +5026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
@@ -5855,22 +5240,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6031,7 +5414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>120</v>
       </c>
@@ -6191,6 +5574,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25C42A-A1E1-EE42-8A07-1FEE7BBEFBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Budget NZ Anonymous" sheetId="4" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="124">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>Paynow</t>
+  </si>
+  <si>
+    <t>Age1</t>
+  </si>
+  <si>
+    <t>ModifyRentalDetails</t>
   </si>
   <si>
     <t>AnonymousUserTestCases</t>
@@ -392,13 +392,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="183" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,40 +415,363 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -451,9 +779,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -464,50 +1034,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -765,28 +1379,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BT21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="81.1640625" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="81.1666666666667" customWidth="1"/>
+    <col min="23" max="23" width="16.3333333333333" customWidth="1"/>
     <col min="62" max="62" width="17.5" customWidth="1"/>
-    <col min="65" max="65" width="18.6640625" customWidth="1"/>
+    <col min="65" max="65" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.6" spans="1:72">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,1554 +1611,1581 @@
       <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="BS1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V2" s="8">
         <v>9840000000</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC2" s="3">
         <v>2323</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s">
         <v>80</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" t="s">
-        <v>78</v>
       </c>
       <c r="V3" s="7">
         <v>9838234567</v>
       </c>
       <c r="W3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC3" s="3">
         <v>2323</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" t="s">
         <v>80</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" t="s">
-        <v>78</v>
       </c>
       <c r="V4" s="7">
         <v>9838234567</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC4" s="3">
         <v>2323</v>
       </c>
       <c r="BD4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL4" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM4" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN4" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR4" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H5" s="4">
         <v>45144</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4">
         <v>45151</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V5" s="7">
         <v>9838234567</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC5" s="3">
         <v>2323</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL5" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM5" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN5" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR5" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" s="4">
         <v>45083</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" s="4">
         <v>45090</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V6" s="7">
         <v>9838234567</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC6" s="3">
         <v>2323</v>
       </c>
       <c r="BD6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL6" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM6" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN6" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR6" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" s="4">
         <v>45118</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" s="4">
         <v>45127</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V7" s="7">
         <v>9838234567</v>
       </c>
       <c r="W7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC7" s="3">
         <v>2323</v>
       </c>
       <c r="BD7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL7" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM7" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN7" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR7" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" s="4">
         <v>45118</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4">
         <v>45127</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V8" s="7">
         <v>9838234567</v>
       </c>
       <c r="W8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC8" s="3">
         <v>2323</v>
       </c>
       <c r="BD8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL8" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM8" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN8" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR8" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4">
         <v>45118</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J9" s="4">
         <v>45127</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V9" s="8">
         <v>9840000000</v>
@@ -2556,207 +3197,210 @@
         <v>1129</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB9" s="3">
         <v>123</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE9" s="3">
         <v>4293</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC9" s="3">
         <v>2323</v>
       </c>
       <c r="BD9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL9" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM9" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN9" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR9" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" s="4">
         <v>45118</v>
       </c>
       <c r="I10" s="6">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="J10" s="4">
         <v>45127</v>
       </c>
       <c r="K10" s="6">
-        <v>0.58333333333333304</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V10" s="8">
         <v>9840000000</v>
@@ -2768,207 +3412,210 @@
         <v>1129</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB10" s="3">
         <v>123</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC10" s="3">
         <v>2323</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL10" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM10" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN10" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR10" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" s="4">
         <v>45118</v>
       </c>
       <c r="I11" s="6">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="J11" s="4">
         <v>45127</v>
       </c>
       <c r="K11" s="6">
-        <v>0.58333333333333304</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V11" s="8">
         <v>9840000000</v>
@@ -2980,843 +3627,855 @@
         <v>1129</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="3">
         <v>123</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE11" s="3">
         <v>4293</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB11" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC11" s="3">
         <v>2323</v>
       </c>
       <c r="BD11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL11" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM11" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN11" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR11" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K12" s="6">
         <v>0.104166666666667</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB12" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BC12" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BF12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BG12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BH12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK12" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BL12" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM12" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BN12" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR12" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="4">
         <v>45118</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J13" s="4">
         <v>45127</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V13" s="8">
         <v>9840000000</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC13" s="3">
         <v>2323</v>
       </c>
       <c r="BD13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="V14" s="8">
         <v>9840000000</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA14" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC14" s="3">
         <v>2323</v>
       </c>
       <c r="BD14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL14" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM14" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN14" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR14" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" s="4">
         <v>45118</v>
       </c>
       <c r="I15" s="6">
-        <v>0.41666666666666702</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="J15" s="4">
         <v>45127</v>
       </c>
       <c r="K15" s="6">
-        <v>0.58333333333333304</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V15" s="7">
         <v>9838234567</v>
@@ -3828,1267 +4487,1285 @@
         <v>1129</v>
       </c>
       <c r="Y15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB15">
         <v>123</v>
       </c>
       <c r="AC15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB15" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC15">
         <v>2323</v>
       </c>
       <c r="BD15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s">
         <v>80</v>
-      </c>
-      <c r="BF15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s">
-        <v>77</v>
-      </c>
-      <c r="U16" t="s">
-        <v>78</v>
       </c>
       <c r="V16" s="7">
         <v>9838234567</v>
       </c>
       <c r="W16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC16" s="3">
         <v>2323</v>
       </c>
       <c r="BD16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL16" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM16" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN16" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR16" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" s="4">
         <v>45118</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J17" s="4">
         <v>45127</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V17" s="8">
         <v>9840000000</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC17" s="3">
         <v>2323</v>
       </c>
       <c r="BD17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" t="s">
+        <v>78</v>
+      </c>
+      <c r="T18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s">
         <v>80</v>
-      </c>
-      <c r="BF17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>73</v>
-      </c>
-      <c r="R18" t="s">
-        <v>75</v>
-      </c>
-      <c r="S18" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" t="s">
-        <v>77</v>
-      </c>
-      <c r="U18" t="s">
-        <v>78</v>
       </c>
       <c r="V18" s="7">
         <v>9838234567</v>
       </c>
       <c r="W18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC18" s="3">
         <v>2323</v>
       </c>
       <c r="BD18" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" t="s">
+        <v>79</v>
+      </c>
+      <c r="U19" t="s">
         <v>80</v>
-      </c>
-      <c r="BF18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BH18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>73</v>
-      </c>
-      <c r="R19" t="s">
-        <v>75</v>
-      </c>
-      <c r="S19" t="s">
-        <v>76</v>
-      </c>
-      <c r="T19" t="s">
-        <v>77</v>
-      </c>
-      <c r="U19" t="s">
-        <v>78</v>
       </c>
       <c r="V19" s="7">
         <v>9838234567</v>
       </c>
       <c r="W19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC19" s="3">
         <v>2323</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL19" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM19" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN19" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ19" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR19" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:71">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20" s="4">
         <v>45118</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J20" s="4">
         <v>45210</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BC20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BD20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BF20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BG20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BH20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BK20" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BL20" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM20" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BN20" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR20" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:71">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H21" s="4">
         <v>45118</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J21" s="4">
         <v>45127</v>
       </c>
       <c r="K21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V21" s="7">
         <v>9838234567</v>
@@ -5100,160 +5777,165 @@
         <v>1129</v>
       </c>
       <c r="Y21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB21">
         <v>123</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE21" s="3">
         <v>4923</v>
       </c>
       <c r="AF21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BC21" s="3">
         <v>2323</v>
       </c>
       <c r="BD21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BE21" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF21" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BG21" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BH21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BI21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BJ21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BK21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL21" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM21" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BN21" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BO21" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BP21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BQ21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BR21" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5264,10 +5946,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -5414,165 +6096,166 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:53">
       <c r="B2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V2">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AR2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AT2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AV2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AX2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AZ2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BA2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_NZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="125">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>ModifyRentalDetails</t>
+  </si>
+  <si>
+    <t>Extras</t>
   </si>
   <si>
     <t>AnonymousUserTestCases</t>
@@ -394,12 +397,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="182" formatCode="0;[Red]0"/>
     <numFmt numFmtId="183" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -434,14 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,6 +451,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -462,9 +473,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,7 +491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,10 +505,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,53 +545,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,9 +573,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,13 +589,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,37 +649,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +679,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,85 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,6 +794,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,188 +880,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,13 +1041,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1385,10 +1388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BT21"/>
+  <dimension ref="A1:BU21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BT2" sqref="BT2:BT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -1400,7 +1403,7 @@
     <col min="65" max="65" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:72">
+    <row r="1" ht="15.6" spans="1:73">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1617,1575 +1620,1620 @@
       <c r="BT1" t="s">
         <v>71</v>
       </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:73">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2" s="8">
         <v>9840000000</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC2" s="3">
         <v>2323</v>
       </c>
       <c r="BD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="BE2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V3" s="7">
         <v>9838234567</v>
       </c>
       <c r="W3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC3" s="3">
         <v>2323</v>
       </c>
       <c r="BD3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="BE3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V4" s="7">
         <v>9838234567</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC4" s="3">
         <v>2323</v>
       </c>
       <c r="BD4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BE4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71">
-      <c r="A5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" s="4">
         <v>45144</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" s="4">
         <v>45151</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V5" s="7">
         <v>9838234567</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC5" s="3">
         <v>2323</v>
       </c>
       <c r="BD5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BE5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="4">
         <v>45083</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4">
         <v>45090</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V6" s="7">
         <v>9838234567</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC6" s="3">
         <v>2323</v>
       </c>
       <c r="BD6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BE6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71">
-      <c r="A7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" s="4">
         <v>45118</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" s="4">
         <v>45127</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V7" s="7">
         <v>9838234567</v>
       </c>
       <c r="W7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC7" s="3">
         <v>2323</v>
       </c>
       <c r="BD7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BE7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="4">
         <v>45118</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" s="4">
         <v>45127</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V8" s="7">
         <v>9838234567</v>
       </c>
       <c r="W8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC8" s="3">
         <v>2323</v>
       </c>
       <c r="BD8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BE8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="4">
         <v>45118</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="4">
         <v>45127</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V9" s="8">
         <v>9840000000</v>
@@ -3197,168 +3245,174 @@
         <v>1129</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" s="3">
         <v>123</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" s="3">
         <v>4293</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB9" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC9" s="3">
         <v>2323</v>
       </c>
       <c r="BD9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BE9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" s="4">
         <v>45118</v>
@@ -3373,34 +3427,34 @@
         <v>0.583333333333333</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" s="8">
         <v>9840000000</v>
@@ -3412,168 +3466,174 @@
         <v>1129</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" s="3">
         <v>123</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC10" s="3">
         <v>2323</v>
       </c>
       <c r="BD10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BE10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="4">
         <v>45118</v>
@@ -3588,34 +3648,34 @@
         <v>0.583333333333333</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11" s="8">
         <v>9840000000</v>
@@ -3627,813 +3687,837 @@
         <v>1129</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" s="3">
         <v>123</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" s="3">
         <v>4293</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC11" s="3">
         <v>2323</v>
       </c>
       <c r="BD11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BE11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BF11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BJ11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BK11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BL11" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BM11" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BN11" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BO11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BP11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BQ11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BR11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BS11" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:71">
+    <row r="12" spans="1:73">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="6">
         <v>0.104166666666667</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="4">
         <v>45118</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" s="4">
         <v>45127</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V13" s="8">
         <v>9840000000</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC13" s="3">
         <v>2323</v>
       </c>
       <c r="BD13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BE13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:71">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V14" s="8">
         <v>9840000000</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC14" s="3">
         <v>2323</v>
       </c>
       <c r="BD14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="BE14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:71">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="4">
         <v>45118</v>
@@ -4448,34 +4532,34 @@
         <v>0.583333333333333</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V15" s="7">
         <v>9838234567</v>
@@ -4487,1285 +4571,1321 @@
         <v>1129</v>
       </c>
       <c r="Y15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15">
         <v>123</v>
       </c>
       <c r="AC15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB15" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB15" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="BC15">
         <v>2323</v>
       </c>
       <c r="BD15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BE15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V16" s="7">
         <v>9838234567</v>
       </c>
       <c r="W16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC16" s="3">
         <v>2323</v>
       </c>
       <c r="BD16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BE16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:71">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="4">
         <v>45118</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J17" s="4">
         <v>45127</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V17" s="8">
         <v>9840000000</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC17" s="3">
         <v>2323</v>
       </c>
       <c r="BD17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="BE17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:71">
-      <c r="A18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V18" s="7">
         <v>9838234567</v>
       </c>
       <c r="W18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC18" s="3">
         <v>2323</v>
       </c>
       <c r="BD18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="BE18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BK18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BN18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:71">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V19" s="7">
         <v>9838234567</v>
       </c>
       <c r="W19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB19" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC19" s="3">
         <v>2323</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BE19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BF19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BJ19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BL19" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BM19" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BN19" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BO19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BP19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BQ19" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BR19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BS19" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:71">
+    <row r="20" spans="1:73">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="4">
         <v>45118</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J20" s="4">
         <v>45210</v>
       </c>
       <c r="K20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:73">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="L20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s">
-        <v>75</v>
-      </c>
-      <c r="X20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:71">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" s="4">
         <v>45118</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J21" s="4">
         <v>45127</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V21" s="7">
         <v>9838234567</v>
@@ -5777,145 +5897,151 @@
         <v>1129</v>
       </c>
       <c r="Y21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB21">
         <v>123</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE21" s="3">
         <v>4923</v>
       </c>
       <c r="AF21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BC21" s="3">
         <v>2323</v>
       </c>
       <c r="BD21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BE21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BF21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BG21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BJ21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BK21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BL21" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BM21" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BN21" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BO21" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BP21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BQ21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BR21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BS21" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5946,10 +6072,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -6098,160 +6224,160 @@
     </row>
     <row r="2" spans="2:53">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AQ2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AS2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AT2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AV2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AW2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AY2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AZ2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BA2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
